--- a/ValidarRecepcion.xlsx
+++ b/ValidarRecepcion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zona de Trabajo\SQL\Recaudacion-Globokas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16ECAB4A-6515-4911-819F-2E84755F53CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51B2D3-5446-4485-85CD-5564FEB41224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E1BB6C8B-D107-49D3-9849-B8E9C6785B6C}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,12 +471,13 @@
     <col min="4" max="4" width="16.28515625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="14" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="14.140625" customWidth="1"/>
   </cols>
